--- a/Fabrication/BOM/Bill of Materials-KeyBaord_V0.1.xlsx
+++ b/Fabrication/BOM/Bill of Materials-KeyBaord_V0.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emelody-4\AppData\Local\Temp\Releases\Snapshot\2\Fabrication\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\KeyBaord\Fabrication\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE7486C3-4885-4EB0-A15A-DB6619EE3946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{189B5AFC-E46C-4B35-B38F-08BC1AAE500A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29835" yWindow="1785" windowWidth="25635" windowHeight="12990" xr2:uid="{9A5D347B-71E3-485E-99E1-3F7CB4C9BED5}"/>
+    <workbookView xWindow="29835" yWindow="1785" windowWidth="25635" windowHeight="12990" xr2:uid="{7A3CAA3F-FC7E-418F-9D22-6112FB9B3263}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-KeyBaord_V0.1" sheetId="1" r:id="rId1"/>
@@ -565,7 +565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF13425D-6D4D-4DD9-A25F-FDFB613CE5A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA778E1-C06A-41CF-8DCA-976C624D659A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
